--- a/codegen/__out__/pc/public/excel_template/nuxt/seo.xlsx
+++ b/codegen/__out__/pc/public/excel_template/nuxt/seo.xlsx
@@ -51,6 +51,9 @@
     <t xml:space="preserve">&lt;% var prop = "is_locked_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;% var prop = "is_default_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.is_default = data.getDict.find((item) =&gt; item[0]?.code === "is_default")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_default &amp;&amp; selectList.is_default.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_default.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;% var prop = "order_by"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "is_locked_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_default_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "order_by"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop]%&gt;</t>
@@ -543,46 +549,52 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
